--- a/Code/Results/Cases/Case_4_253/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_253/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.505252138492381</v>
+        <v>2.543602785316182</v>
       </c>
       <c r="C2">
-        <v>1.856850838086132</v>
+        <v>0.7100761000916123</v>
       </c>
       <c r="D2">
-        <v>0.20157571566169</v>
+        <v>0.07643685232798703</v>
       </c>
       <c r="E2">
-        <v>0.01464006736700618</v>
+        <v>0.01724538480356141</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007889231247212159</v>
+        <v>0.002599618695145693</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.686208732330641</v>
+        <v>5.057023726099231</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4630600638142397</v>
+        <v>0.3476466353527314</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.994707581819512</v>
+        <v>2.47834464801889</v>
       </c>
       <c r="C3">
-        <v>1.583159891394928</v>
+        <v>0.6476342069420298</v>
       </c>
       <c r="D3">
-        <v>0.1719596938069543</v>
+        <v>0.06961147884922525</v>
       </c>
       <c r="E3">
-        <v>0.01322326121197648</v>
+        <v>0.01685981551969906</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008057808829904367</v>
+        <v>0.002608489123916296</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.483719367478926</v>
+        <v>4.74064561398589</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.403416198405111</v>
+        <v>0.3361113865778691</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.697879627202553</v>
+        <v>2.441371437843259</v>
       </c>
       <c r="C4">
-        <v>1.421562259728603</v>
+        <v>0.6097883181083716</v>
       </c>
       <c r="D4">
-        <v>0.1544504304323056</v>
+        <v>0.06547316880389076</v>
       </c>
       <c r="E4">
-        <v>0.0123896312711711</v>
+        <v>0.01661991848199218</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.000816210628361979</v>
+        <v>0.002614202434003671</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.769519587093356</v>
+        <v>4.546817989492382</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3682915770636157</v>
+        <v>0.3292711945659192</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.580440320502646</v>
+        <v>2.427075240903548</v>
       </c>
       <c r="C5">
-        <v>1.357049076839644</v>
+        <v>0.5944861663194274</v>
       </c>
       <c r="D5">
-        <v>0.1474556114711589</v>
+        <v>0.06379957101751188</v>
       </c>
       <c r="E5">
-        <v>0.01205709234457242</v>
+        <v>0.01652133745898432</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008204905472693862</v>
+        <v>0.00261659807013047</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.483455120769264</v>
+        <v>4.467921967524319</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3542956216434874</v>
+        <v>0.3265440405375983</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.5611348058668</v>
+        <v>2.424747694393943</v>
       </c>
       <c r="C6">
-        <v>1.34641017341346</v>
+        <v>0.5919524156736315</v>
       </c>
       <c r="D6">
-        <v>0.1463018305165349</v>
+        <v>0.06352243265820334</v>
       </c>
       <c r="E6">
-        <v>0.01200225700466806</v>
+        <v>0.01650491777385898</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008212032782961565</v>
+        <v>0.002616999944796916</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.436226206676935</v>
+        <v>4.45482628350635</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3519892383755234</v>
+        <v>0.3260948193752284</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.696282346668454</v>
+        <v>2.44117552387371</v>
       </c>
       <c r="C7">
-        <v>1.420687131089323</v>
+        <v>0.6095814655705567</v>
       </c>
       <c r="D7">
-        <v>0.1543555631120057</v>
+        <v>0.06545054679129692</v>
       </c>
       <c r="E7">
-        <v>0.0123851198281022</v>
+        <v>0.01661859234417218</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008162682168239039</v>
+        <v>0.002614234468847161</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.765642787878733</v>
+        <v>4.545753627789821</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3681016078246984</v>
+        <v>0.329234172051315</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.32532319301913</v>
+        <v>2.520454560193741</v>
       </c>
       <c r="C8">
-        <v>1.760958070925483</v>
+        <v>0.6884413495802733</v>
       </c>
       <c r="D8">
-        <v>0.1912047196905746</v>
+        <v>0.07407232037492406</v>
       </c>
       <c r="E8">
-        <v>0.0141427247212409</v>
+        <v>0.01711307878199797</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007947257251385835</v>
+        <v>0.002602622031609891</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.265868212793379</v>
+        <v>4.947836479994947</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4421456676971474</v>
+        <v>0.3436185214222718</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.728540843776273</v>
+        <v>2.700853146996337</v>
       </c>
       <c r="C9">
-        <v>2.495277813395717</v>
+        <v>0.8471843765046856</v>
       </c>
       <c r="D9">
-        <v>0.2704686046992464</v>
+        <v>0.09141553070045916</v>
       </c>
       <c r="E9">
-        <v>0.01798997865121699</v>
+        <v>0.01805901327652659</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.000752558302946811</v>
+        <v>0.002581952588578791</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.45997687202691</v>
+        <v>5.74057702367395</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6025047081182038</v>
+        <v>0.3737843825649207</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.932300669368431</v>
+        <v>2.849139058330479</v>
       </c>
       <c r="C10">
-        <v>3.104807472731807</v>
+        <v>0.9665799135336215</v>
       </c>
       <c r="D10">
-        <v>0.3359830935294781</v>
+        <v>0.1044519694731179</v>
       </c>
       <c r="E10">
-        <v>0.02127445204838985</v>
+        <v>0.01874137260878417</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007206221268003506</v>
+        <v>0.002568027801788198</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.07053299477604</v>
+        <v>6.326838204855022</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7355353460083052</v>
+        <v>0.3971920337543509</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.540429045412225</v>
+        <v>2.920142182224026</v>
       </c>
       <c r="C11">
-        <v>3.406893897556017</v>
+        <v>1.021557372377231</v>
       </c>
       <c r="D11">
-        <v>0.3683526299275854</v>
+        <v>0.1104529609660005</v>
       </c>
       <c r="E11">
-        <v>0.02294144123956698</v>
+        <v>0.01904947214734065</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007055584282099069</v>
+        <v>0.002561962395420862</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.35109803155842</v>
+        <v>6.594653638503303</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8013003621980772</v>
+        <v>0.40812268737929</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.782243411238142</v>
+        <v>2.94754952563153</v>
       </c>
       <c r="C12">
-        <v>3.526027526060773</v>
+        <v>1.042476222468053</v>
       </c>
       <c r="D12">
-        <v>0.3810991438664928</v>
+        <v>0.1127360571919809</v>
       </c>
       <c r="E12">
-        <v>0.02360685085664649</v>
+        <v>0.0191658434105868</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0006997372721740153</v>
+        <v>0.002559703919978879</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.85369771586687</v>
+        <v>6.696251890325186</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.8271939156662427</v>
+        <v>0.4123033783979793</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.729594912781351</v>
+        <v>2.941623574827076</v>
       </c>
       <c r="C13">
-        <v>3.50013567851363</v>
+        <v>1.037966447751273</v>
       </c>
       <c r="D13">
-        <v>0.378329819914498</v>
+        <v>0.1122438698896957</v>
       </c>
       <c r="E13">
-        <v>0.02346183415490444</v>
+        <v>0.01914079356030918</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007009969550160775</v>
+        <v>0.002560188622113121</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.74458214093255</v>
+        <v>6.674362439056324</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.8215685774573842</v>
+        <v>0.4114011321776445</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.560072190678397</v>
+        <v>2.92238652116356</v>
       </c>
       <c r="C14">
-        <v>3.416591809110287</v>
+        <v>1.023276346064506</v>
       </c>
       <c r="D14">
-        <v>0.369390651237623</v>
+        <v>0.1106405763389375</v>
       </c>
       <c r="E14">
-        <v>0.0229954334804372</v>
+        <v>0.01905905188996559</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007050821408245354</v>
+        <v>0.002561775822409078</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.39206271795285</v>
+        <v>6.603008411098926</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.8034091519238302</v>
+        <v>0.4084657986767866</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.457837868558386</v>
+        <v>2.910671290416417</v>
       </c>
       <c r="C15">
-        <v>3.366078240178467</v>
+        <v>1.014291407390942</v>
       </c>
       <c r="D15">
-        <v>0.3639831158007922</v>
+        <v>0.1096599146480912</v>
       </c>
       <c r="E15">
-        <v>0.02271453754016939</v>
+        <v>0.01900894475883952</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.000707567787570095</v>
+        <v>0.002562753014562299</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.17859034767184</v>
+        <v>6.559326388507372</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7924232879613839</v>
+        <v>0.4066732519949028</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.893995111074958</v>
+        <v>2.844571055365122</v>
       </c>
       <c r="C16">
-        <v>3.085655630948509</v>
+        <v>0.96300075731682</v>
       </c>
       <c r="D16">
-        <v>0.3339286248292836</v>
+        <v>0.1040612539313059</v>
       </c>
       <c r="E16">
-        <v>0.02116970419966524</v>
+        <v>0.01872119388954729</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007215927001200662</v>
+        <v>0.00256842957691904</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.98905169086544</v>
+        <v>6.309360201272426</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7313613520883422</v>
+        <v>0.3964834470647105</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.565313380912016</v>
+        <v>2.804936162358842</v>
       </c>
       <c r="C17">
-        <v>2.920692174569581</v>
+        <v>0.9317088743484874</v>
       </c>
       <c r="D17">
-        <v>0.3162215109165913</v>
+        <v>0.1006450975057049</v>
       </c>
       <c r="E17">
-        <v>0.02027184440621443</v>
+        <v>0.01854409962104242</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007300350616783678</v>
+        <v>0.002571980642095286</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.2857595383482</v>
+        <v>6.156316252101448</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6953896008326126</v>
+        <v>0.3903052783619074</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.381747084069104</v>
+        <v>2.782472477481633</v>
       </c>
       <c r="C18">
-        <v>2.82805564656519</v>
+        <v>0.9137728093590454</v>
       </c>
       <c r="D18">
-        <v>0.3062693632261073</v>
+        <v>0.09868683436683057</v>
       </c>
       <c r="E18">
-        <v>0.01977097397271876</v>
+        <v>0.01844202032520492</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007348434708381309</v>
+        <v>0.002574048464898015</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.88967435290596</v>
+        <v>6.068393770167575</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6751758794020191</v>
+        <v>0.3867782851049668</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.320465737114318</v>
+        <v>2.774923599939484</v>
       </c>
       <c r="C19">
-        <v>2.797046895650681</v>
+        <v>0.9077105099479468</v>
       </c>
       <c r="D19">
-        <v>0.3029366624702874</v>
+        <v>0.0980249223051004</v>
       </c>
       <c r="E19">
-        <v>0.01960383066264892</v>
+        <v>0.01840741937305079</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.000736464371709657</v>
+        <v>0.002574752956675595</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.75690600654696</v>
+        <v>6.038642019758981</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6684077415045522</v>
+        <v>0.3855886352597366</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.599717345561999</v>
+        <v>2.80912080268547</v>
       </c>
       <c r="C20">
-        <v>2.938013149289134</v>
+        <v>0.9350334783485437</v>
       </c>
       <c r="D20">
-        <v>0.3180816612370876</v>
+        <v>0.1010080645601334</v>
       </c>
       <c r="E20">
-        <v>0.02036575700575849</v>
+        <v>0.0185629740766915</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007291415102856342</v>
+        <v>0.002571600004495375</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.35972714018561</v>
+        <v>6.172597091601119</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6991681115180057</v>
+        <v>0.3909602033347284</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.609524378066283</v>
+        <v>2.928022716599457</v>
       </c>
       <c r="C21">
-        <v>3.440990491601497</v>
+        <v>1.027588431400375</v>
       </c>
       <c r="D21">
-        <v>0.3720018586833476</v>
+        <v>0.1111112094678219</v>
       </c>
       <c r="E21">
-        <v>0.0231314065992656</v>
+        <v>0.01908306925908487</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007038857849606117</v>
+        <v>0.002561308584807838</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.49508440810285</v>
+        <v>6.623961699879374</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.8087138538539591</v>
+        <v>0.4093268440926465</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.338893003322596</v>
+        <v>3.008767812350129</v>
       </c>
       <c r="C22">
-        <v>3.798252768502948</v>
+        <v>1.088664025373816</v>
       </c>
       <c r="D22">
-        <v>0.4101836549473177</v>
+        <v>0.1177765190782765</v>
       </c>
       <c r="E22">
-        <v>0.02514550815893735</v>
+        <v>0.01942125253089166</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006866678425447119</v>
+        <v>0.002554805998771025</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.99698768948593</v>
+        <v>6.920027596107502</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.8862574447967972</v>
+        <v>0.4215727692617861</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.942022766378841</v>
+        <v>2.965391486245835</v>
       </c>
       <c r="C23">
-        <v>3.604449757716338</v>
+        <v>1.056011688627677</v>
       </c>
       <c r="D23">
-        <v>0.3894837865531997</v>
+        <v>0.1142132494775865</v>
       </c>
       <c r="E23">
-        <v>0.02404746507584754</v>
+        <v>0.01924090491936603</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006959399296034839</v>
+        <v>0.002558256213801665</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.18379481217505</v>
+        <v>6.761906408689754</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8442243035088666</v>
+        <v>0.4150144225720851</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.584146699382927</v>
+        <v>2.807227921645108</v>
       </c>
       <c r="C24">
-        <v>2.930175556260224</v>
+        <v>0.933530256857523</v>
       </c>
       <c r="D24">
-        <v>0.3172399857809864</v>
+        <v>0.100843949342547</v>
       </c>
       <c r="E24">
-        <v>0.02032325204248231</v>
+        <v>0.01855444176457333</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007295456228692015</v>
+        <v>0.002571772008979528</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.32626100209728</v>
+        <v>6.16523632466857</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6974584089657725</v>
+        <v>0.3906640342063241</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.324703359543378</v>
+        <v>2.649325842989924</v>
       </c>
       <c r="C25">
-        <v>2.286890127329514</v>
+        <v>0.8037740558602877</v>
       </c>
       <c r="D25">
-        <v>0.2480112525599765</v>
+        <v>0.0866741483459208</v>
       </c>
       <c r="E25">
-        <v>0.01688791937340017</v>
+        <v>0.01780546611076339</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007640456996908363</v>
+        <v>0.002587321264718814</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.55916490941976</v>
+        <v>5.525537408660426</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5569738851166619</v>
+        <v>0.3654088970922942</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_253/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_253/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.543602785316182</v>
+        <v>3.505252138492551</v>
       </c>
       <c r="C2">
-        <v>0.7100761000916123</v>
+        <v>1.856850838086643</v>
       </c>
       <c r="D2">
-        <v>0.07643685232798703</v>
+        <v>0.2015757156625568</v>
       </c>
       <c r="E2">
-        <v>0.01724538480356141</v>
+        <v>0.01464006736701506</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002599618695145693</v>
+        <v>0.0007889231246948392</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.057023726099231</v>
+        <v>9.686208732330869</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3476466353527314</v>
+        <v>0.4630600638144102</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.47834464801889</v>
+        <v>2.994707581819227</v>
       </c>
       <c r="C3">
-        <v>0.6476342069420298</v>
+        <v>1.583159891394416</v>
       </c>
       <c r="D3">
-        <v>0.06961147884922525</v>
+        <v>0.1719596938071675</v>
       </c>
       <c r="E3">
-        <v>0.01685981551969906</v>
+        <v>0.01322326121195339</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002608489123916296</v>
+        <v>0.0008057808829803036</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>4.74064561398589</v>
+        <v>8.483719367478983</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3361113865778691</v>
+        <v>0.4034161984052673</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.441371437843259</v>
+        <v>2.697879627202838</v>
       </c>
       <c r="C4">
-        <v>0.6097883181083716</v>
+        <v>1.42156225972866</v>
       </c>
       <c r="D4">
-        <v>0.06547316880389076</v>
+        <v>0.1544504304323198</v>
       </c>
       <c r="E4">
-        <v>0.01661991848199218</v>
+        <v>0.0123896312711782</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002614202434003671</v>
+        <v>0.000816210628607202</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>4.546817989492382</v>
+        <v>7.769519587093299</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3292711945659192</v>
+        <v>0.3682915770635447</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.427075240903548</v>
+        <v>2.580440320502476</v>
       </c>
       <c r="C5">
-        <v>0.5944861663194274</v>
+        <v>1.357049076839189</v>
       </c>
       <c r="D5">
-        <v>0.06379957101751188</v>
+        <v>0.14745561147123</v>
       </c>
       <c r="E5">
-        <v>0.01652133745898432</v>
+        <v>0.01205709234458752</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.00261659807013047</v>
+        <v>0.0008204905474033726</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>4.467921967524319</v>
+        <v>7.483455120769264</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3265440405375983</v>
+        <v>0.3542956216433311</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.424747694393943</v>
+        <v>2.561134805866857</v>
       </c>
       <c r="C6">
-        <v>0.5919524156736315</v>
+        <v>1.346410173414313</v>
       </c>
       <c r="D6">
-        <v>0.06352243265820334</v>
+        <v>0.1463018305164638</v>
       </c>
       <c r="E6">
-        <v>0.01650491777385898</v>
+        <v>0.0120022570046423</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002616999944796916</v>
+        <v>0.0008212032784119505</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.45482628350635</v>
+        <v>7.436226206676906</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3260948193752284</v>
+        <v>0.351989238375495</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.44117552387371</v>
+        <v>2.696282346668568</v>
       </c>
       <c r="C7">
-        <v>0.6095814655705567</v>
+        <v>1.420687131089949</v>
       </c>
       <c r="D7">
-        <v>0.06545054679129692</v>
+        <v>0.1543555631118068</v>
       </c>
       <c r="E7">
-        <v>0.01661859234417218</v>
+        <v>0.0123851198281324</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002614234468847161</v>
+        <v>0.0008162682168392245</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>4.545753627789821</v>
+        <v>7.765642787878676</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.329234172051315</v>
+        <v>0.3681016078248405</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.520454560193741</v>
+        <v>3.325323193019472</v>
       </c>
       <c r="C8">
-        <v>0.6884413495802733</v>
+        <v>1.760958070925483</v>
       </c>
       <c r="D8">
-        <v>0.07407232037492406</v>
+        <v>0.1912047196895372</v>
       </c>
       <c r="E8">
-        <v>0.01711307878199797</v>
+        <v>0.01414272472116984</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002602622031609891</v>
+        <v>0.0007947257250275101</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4.947836479994947</v>
+        <v>9.265868212793322</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3436185214222718</v>
+        <v>0.442145667697261</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.700853146996337</v>
+        <v>4.728540843776784</v>
       </c>
       <c r="C9">
-        <v>0.8471843765046856</v>
+        <v>2.49527781339674</v>
       </c>
       <c r="D9">
-        <v>0.09141553070045916</v>
+        <v>0.2704686046989337</v>
       </c>
       <c r="E9">
-        <v>0.01805901327652659</v>
+        <v>0.0179899786512232</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002581952588578791</v>
+        <v>0.0007525583031089757</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5.74057702367395</v>
+        <v>12.45997687202691</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3737843825649207</v>
+        <v>0.6025047081180475</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.849139058330479</v>
+        <v>5.932300669368317</v>
       </c>
       <c r="C10">
-        <v>0.9665799135336215</v>
+        <v>3.104807472732432</v>
       </c>
       <c r="D10">
-        <v>0.1044519694731179</v>
+        <v>0.3359830935294497</v>
       </c>
       <c r="E10">
-        <v>0.01874137260878417</v>
+        <v>0.02127445204840761</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002568027801788198</v>
+        <v>0.0007206221267229688</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.326838204855022</v>
+        <v>15.0705329947761</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3971920337543509</v>
+        <v>0.7355353460086604</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.920142182224026</v>
+        <v>6.540429045411827</v>
       </c>
       <c r="C11">
-        <v>1.021557372377231</v>
+        <v>3.406893897556586</v>
       </c>
       <c r="D11">
-        <v>0.1104529609660005</v>
+        <v>0.3683526299265338</v>
       </c>
       <c r="E11">
-        <v>0.01904947214734065</v>
+        <v>0.02294144123960074</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002561962395420862</v>
+        <v>0.0007055584282258663</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6.594653638503303</v>
+        <v>16.35109803155825</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.40812268737929</v>
+        <v>0.8013003621982477</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.94754952563153</v>
+        <v>6.782243411238198</v>
       </c>
       <c r="C12">
-        <v>1.042476222468053</v>
+        <v>3.526027526061512</v>
       </c>
       <c r="D12">
-        <v>0.1127360571919809</v>
+        <v>0.3810991438671607</v>
       </c>
       <c r="E12">
-        <v>0.0191658434105868</v>
+        <v>0.02360685085661451</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002559703919978879</v>
+        <v>0.0006997372719755265</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.696251890325186</v>
+        <v>16.85369771586704</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4123033783979793</v>
+        <v>0.8271939156664416</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.941623574827076</v>
+        <v>6.729594912781124</v>
       </c>
       <c r="C13">
-        <v>1.037966447751273</v>
+        <v>3.50013567851164</v>
       </c>
       <c r="D13">
-        <v>0.1122438698896957</v>
+        <v>0.3783298199139011</v>
       </c>
       <c r="E13">
-        <v>0.01914079356030918</v>
+        <v>0.02346183415501812</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002560188622113121</v>
+        <v>0.0007009969550811379</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>6.674362439056324</v>
+        <v>16.74458214093289</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4114011321776445</v>
+        <v>0.8215685774575547</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.92238652116356</v>
+        <v>6.560072190678568</v>
       </c>
       <c r="C14">
-        <v>1.023276346064506</v>
+        <v>3.416591809109889</v>
       </c>
       <c r="D14">
-        <v>0.1106405763389375</v>
+        <v>0.3693906512376373</v>
       </c>
       <c r="E14">
-        <v>0.01905905188996559</v>
+        <v>0.02299543348049049</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002561775822409078</v>
+        <v>0.0007050821409448836</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6.603008411098926</v>
+        <v>16.39206271795359</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4084657986767866</v>
+        <v>0.8034091519239155</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.910671290416417</v>
+        <v>6.457837868558272</v>
       </c>
       <c r="C15">
-        <v>1.014291407390942</v>
+        <v>3.36607824017841</v>
       </c>
       <c r="D15">
-        <v>0.1096599146480912</v>
+        <v>0.363983115801048</v>
       </c>
       <c r="E15">
-        <v>0.01900894475883952</v>
+        <v>0.02271453754016406</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002562753014562299</v>
+        <v>0.0007075677875436564</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6.559326388507372</v>
+        <v>16.17859034767218</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4066732519949028</v>
+        <v>0.7924232879610429</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.844571055365122</v>
+        <v>5.893995111075412</v>
       </c>
       <c r="C16">
-        <v>0.96300075731682</v>
+        <v>3.08565563094902</v>
       </c>
       <c r="D16">
-        <v>0.1040612539313059</v>
+        <v>0.3339286248288431</v>
       </c>
       <c r="E16">
-        <v>0.01872119388954729</v>
+        <v>0.02116970419968212</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.00256842957691904</v>
+        <v>0.0007215927002099461</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>6.309360201272426</v>
+        <v>14.98905169086555</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3964834470647105</v>
+        <v>0.7313613520881859</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.804936162358842</v>
+        <v>5.565313380912244</v>
       </c>
       <c r="C17">
-        <v>0.9317088743484874</v>
+        <v>2.920692174568899</v>
       </c>
       <c r="D17">
-        <v>0.1006450975057049</v>
+        <v>0.3162215109167192</v>
       </c>
       <c r="E17">
-        <v>0.01854409962104242</v>
+        <v>0.02027184440617624</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002571980642095286</v>
+        <v>0.0007300350618806548</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6.156316252101448</v>
+        <v>14.28575953834797</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3903052783619074</v>
+        <v>0.6953896008327405</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.782472477481633</v>
+        <v>5.381747084069104</v>
       </c>
       <c r="C18">
-        <v>0.9137728093590454</v>
+        <v>2.828055646564962</v>
       </c>
       <c r="D18">
-        <v>0.09868683436683057</v>
+        <v>0.3062693632263915</v>
       </c>
       <c r="E18">
-        <v>0.01844202032520492</v>
+        <v>0.01977097397270366</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002574048464898015</v>
+        <v>0.0007348434707459916</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.068393770167575</v>
+        <v>13.88967435290621</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3867782851049668</v>
+        <v>0.6751758794028433</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.774923599939484</v>
+        <v>5.32046573711466</v>
       </c>
       <c r="C19">
-        <v>0.9077105099479468</v>
+        <v>2.797046895650737</v>
       </c>
       <c r="D19">
-        <v>0.0980249223051004</v>
+        <v>0.3029366624699321</v>
       </c>
       <c r="E19">
-        <v>0.01840741937305079</v>
+        <v>0.0196038306625903</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002574752956675595</v>
+        <v>0.000736464371716784</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.038642019758981</v>
+        <v>13.75690600654698</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3855886352597366</v>
+        <v>0.6684077415048364</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.80912080268547</v>
+        <v>5.599717345562055</v>
       </c>
       <c r="C20">
-        <v>0.9350334783485437</v>
+        <v>2.938013149288338</v>
       </c>
       <c r="D20">
-        <v>0.1010080645601334</v>
+        <v>0.3180816612369881</v>
       </c>
       <c r="E20">
-        <v>0.0185629740766915</v>
+        <v>0.02036575700565635</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002571600004495375</v>
+        <v>0.000729141509985537</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6.172597091601119</v>
+        <v>14.35972714018595</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3909602033347284</v>
+        <v>0.6991681115183326</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.928022716599457</v>
+        <v>6.609524378067192</v>
       </c>
       <c r="C21">
-        <v>1.027588431400375</v>
+        <v>3.440990491601383</v>
       </c>
       <c r="D21">
-        <v>0.1111112094678219</v>
+        <v>0.3720018586826939</v>
       </c>
       <c r="E21">
-        <v>0.01908306925908487</v>
+        <v>0.02313140659929758</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002561308584807838</v>
+        <v>0.0007038857850099226</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>6.623961699879374</v>
+        <v>16.49508440810337</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4093268440926465</v>
+        <v>0.8087138538537317</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.008767812350129</v>
+        <v>7.33889300332271</v>
       </c>
       <c r="C22">
-        <v>1.088664025373816</v>
+        <v>3.798252768502323</v>
       </c>
       <c r="D22">
-        <v>0.1177765190782765</v>
+        <v>0.4101836549465077</v>
       </c>
       <c r="E22">
-        <v>0.01942125253089166</v>
+        <v>0.02514550815886096</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002554805998771025</v>
+        <v>0.0006866678429230858</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.920027596107502</v>
+        <v>17.99698768948605</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4215727692617861</v>
+        <v>0.8862574447969678</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.965391486245835</v>
+        <v>6.942022766378841</v>
       </c>
       <c r="C23">
-        <v>1.056011688627677</v>
+        <v>3.604449757715258</v>
       </c>
       <c r="D23">
-        <v>0.1142132494775865</v>
+        <v>0.3894837865530576</v>
       </c>
       <c r="E23">
-        <v>0.01924090491936603</v>
+        <v>0.02404746507594702</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002558256213801665</v>
+        <v>0.0006959399293985169</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>6.761906408689754</v>
+        <v>17.18379481217522</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4150144225720851</v>
+        <v>0.8442243035090087</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.807227921645108</v>
+        <v>5.584146699382927</v>
       </c>
       <c r="C24">
-        <v>0.933530256857523</v>
+        <v>2.930175556259428</v>
       </c>
       <c r="D24">
-        <v>0.100843949342547</v>
+        <v>0.3172399857813843</v>
       </c>
       <c r="E24">
-        <v>0.01855444176457333</v>
+        <v>0.02032325204228691</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002571772008979528</v>
+        <v>0.0007295456226769109</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>6.16523632466857</v>
+        <v>14.32626100209717</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3906640342063241</v>
+        <v>0.6974584089657867</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.649325842989924</v>
+        <v>4.324703359543378</v>
       </c>
       <c r="C25">
-        <v>0.8037740558602877</v>
+        <v>2.286890127329229</v>
       </c>
       <c r="D25">
-        <v>0.0866741483459208</v>
+        <v>0.2480112525605023</v>
       </c>
       <c r="E25">
-        <v>0.01780546611076339</v>
+        <v>0.01688791937342238</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002587321264718814</v>
+        <v>0.0007640456995462761</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>5.525537408660426</v>
+        <v>11.55916490942013</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3654088970922942</v>
+        <v>0.5569738851169177</v>
       </c>
       <c r="M25">
         <v>0</v>
